--- a/biology/Botanique/Georges_Bugnet/Georges_Bugnet.xlsx
+++ b/biology/Botanique/Georges_Bugnet/Georges_Bugnet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges-Charles-Jules Bugnet (Chalon-sur-Saône, 23 février 1879 - St. Albert (Alberta), 11 janvier 1981) est un écrivain, un journaliste et un horticulteur canadien et français.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il étudie dans plusieurs collèges, avec les pères oblats et à l'Université de Dijon, fait des séjours dans les séminaires locaux et est rédacteur de plusieurs journaux catholiques. Ayant rencontré un missionnaire colonisateur, il s'établit ensuite à Saint-Boniface, au Manitoba, et à Rich Valley, en Alberta[1]. En 1905, il acquiert une concession à Rich Valley où il devient successivement défricheur, agriculteur, horticulteur et créateur de roses[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudie dans plusieurs collèges, avec les pères oblats et à l'Université de Dijon, fait des séjours dans les séminaires locaux et est rédacteur de plusieurs journaux catholiques. Ayant rencontré un missionnaire colonisateur, il s'établit ensuite à Saint-Boniface, au Manitoba, et à Rich Valley, en Alberta. En 1905, il acquiert une concession à Rich Valley où il devient successivement défricheur, agriculteur, horticulteur et créateur de roses.
 Auteur de plusieurs romans, qu'il publie sous le pseudonyme de Henri Doutremont, Bugnet s'intéresse à la vie française en Alberta. Il contribue à fonder l'Association canadienne-française de l'Alberta et il est le président du comité organisateur de son 1er Congrès général. Pendant plus de trente ans, il est le directeur du district scolaire de Lac-Sainte-Anne. Il correspondait régulièrement avec Camille Roy et Arthur Maheux.
-Il reçoit plusieurs distinctions au cours de sa vie, notamment l'Ordre des palmes académiques en 1970 et un doctorat honoris causa de l'Université de l'Alberta en 1978 pour son apport à la littérature et à l'horticulture[3]. Une variété de rose qu'il a créé en 1950 porte par ailleurs le nom de Bugnet[4].
+Il reçoit plusieurs distinctions au cours de sa vie, notamment l'Ordre des palmes académiques en 1970 et un doctorat honoris causa de l'Université de l'Alberta en 1978 pour son apport à la littérature et à l'horticulture. Une variété de rose qu'il a créé en 1950 porte par ailleurs le nom de Bugnet.
 Il meurt en 1981 à l'âge de 101 ans.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Éponyme: Georges Bugnet Award for Fiction (novel) de la "Writers Guild of Alberta"</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Ouvrages publiés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le Lys de sang, 1923
 Nypsya, 1924
@@ -614,7 +632,9 @@
           <t>Revues et journaux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La Croix de Paris, 1903
 La Croix de la Haute-Savoie
